--- a/Effort/EffortGianmarcoAccordiDD.xlsx
+++ b/Effort/EffortGianmarcoAccordiDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianmarco Accordi\Documents\Project-INGSW2\AbboAccordiBonetti\Effort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9DA540-A1E7-4948-9FE4-73D548A04491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E652FD6-C965-4029-8761-9EB885930A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0B28E5B0-B43E-E940-AC9B-200C96DB78B3}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Effort/EffortGianmarcoAccordiDD.xlsx
+++ b/Effort/EffortGianmarcoAccordiDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianmarco Accordi\Documents\Project-INGSW2\AbboAccordiBonetti\Effort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E652FD6-C965-4029-8761-9EB885930A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1895E56F-9181-403A-B2A4-0C6E85CAA5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0B28E5B0-B43E-E940-AC9B-200C96DB78B3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Massimiliano Bonetti</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>26.5</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -469,8 +472,8 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>20</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">

--- a/Effort/EffortGianmarcoAccordiDD.xlsx
+++ b/Effort/EffortGianmarcoAccordiDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianmarco Accordi\Documents\Project-INGSW2\AbboAccordiBonetti\Effort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1895E56F-9181-403A-B2A4-0C6E85CAA5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89966875-C8A0-43BF-A433-EED3CBB1B987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0B28E5B0-B43E-E940-AC9B-200C96DB78B3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Massimiliano Bonetti</t>
   </si>
@@ -60,7 +60,10 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>26.5</t>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -496,8 +499,8 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>0.5</v>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Effort/EffortGianmarcoAccordiDD.xlsx
+++ b/Effort/EffortGianmarcoAccordiDD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianmarco Accordi\Documents\Project-INGSW2\AbboAccordiBonetti\Effort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Desktop/SE2proj/AbboAccordiBonetti/Effort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89966875-C8A0-43BF-A433-EED3CBB1B987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268E796B-FD87-564C-B456-8E485849DD01}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0B28E5B0-B43E-E940-AC9B-200C96DB78B3}"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{0B28E5B0-B43E-E940-AC9B-200C96DB78B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Massimiliano Bonetti</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Description of the task</t>
   </si>
@@ -57,13 +54,7 @@
     <t>Implementation, Integration and Test Plan</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
+    <t>Gianmarco Accordi</t>
   </si>
 </sst>
 </file>
@@ -432,29 +423,29 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.875" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -463,44 +454,44 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+      <c r="B7">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
